--- a/11/After_Soc_EEH2.xlsx
+++ b/11/After_Soc_EEH2.xlsx
@@ -17,12 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
     <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Contr_end</t>
@@ -434,151 +467,154 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AW1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>0.1308370302308267</v>
@@ -724,7 +760,7 @@
     </row>
     <row r="3" spans="1:49">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>0.1238668735810268</v>
@@ -870,7 +906,7 @@
     </row>
     <row r="4" spans="1:49">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>0.08363413232303657</v>
@@ -1016,7 +1052,7 @@
     </row>
     <row r="5" spans="1:49">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>0.3994658237040736</v>
@@ -1162,7 +1198,7 @@
     </row>
     <row r="6" spans="1:49">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>0.149954321085333</v>
@@ -1308,7 +1344,7 @@
     </row>
     <row r="7" spans="1:49">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>0.09533752033301866</v>
@@ -1454,7 +1490,7 @@
     </row>
     <row r="8" spans="1:49">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>0.7643990634209908</v>
@@ -1600,7 +1636,7 @@
     </row>
     <row r="9" spans="1:49">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>0.0241382854535821</v>
@@ -1740,7 +1776,7 @@
     </row>
     <row r="10" spans="1:49">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>0.06749861096558667</v>
@@ -1886,7 +1922,7 @@
     </row>
     <row r="11" spans="1:49">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>0.07299233573480306</v>
@@ -2050,151 +2086,154 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AW1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>9.034611872998743</v>
@@ -2340,7 +2379,7 @@
     </row>
     <row r="3" spans="1:49">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>9.568964399971019</v>
@@ -2486,7 +2525,7 @@
     </row>
     <row r="4" spans="1:49">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>10.08097056545658</v>
@@ -2632,7 +2671,7 @@
     </row>
     <row r="5" spans="1:49">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>6.895219642929272</v>
@@ -2778,7 +2817,7 @@
     </row>
     <row r="6" spans="1:49">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>9.226157603186962</v>
@@ -2924,7 +2963,7 @@
     </row>
     <row r="7" spans="1:49">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>10.28866724872033</v>
@@ -3070,7 +3109,7 @@
     </row>
     <row r="8" spans="1:49">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>6.750488965361302</v>
@@ -3216,7 +3255,7 @@
     </row>
     <row r="9" spans="1:49">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>8.994673716152755</v>
@@ -3356,7 +3395,7 @@
     </row>
     <row r="10" spans="1:49">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>10.01225789881686</v>
@@ -3502,7 +3541,7 @@
     </row>
     <row r="11" spans="1:49">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>10.35357398834602</v>
@@ -3666,208 +3705,211 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
+      <c r="AW1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>7</v>
-      </c>
-      <c r="T1" t="n">
-        <v>8</v>
-      </c>
-      <c r="U1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>9</v>
-      </c>
-      <c r="W1" t="n">
-        <v>9</v>
-      </c>
-      <c r="X1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7429414871679669</v>
+        <v>0.7429414871679665</v>
       </c>
       <c r="D2" t="n">
         <v>0.5856036620638314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.749729501228804</v>
+        <v>0.7497295012288041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7847349626532798</v>
+        <v>0.7847349626532801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7672273964792816</v>
+        <v>0.7672273964792817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7667889739958196</v>
+        <v>0.76678897399582</v>
       </c>
       <c r="I2" t="n">
         <v>0.7154024394099314</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7347338640807198</v>
+        <v>0.7347338640807195</v>
       </c>
       <c r="K2" t="n">
         <v>0.7477122869089106</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7342051827952687</v>
+        <v>0.7342051827952689</v>
       </c>
       <c r="M2" t="n">
         <v>0.7180882819700229</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7708891736282686</v>
+        <v>0.7708891736282687</v>
       </c>
       <c r="O2" t="n">
-        <v>0.740391084781251</v>
+        <v>0.7403910847812512</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7547456629860343</v>
+        <v>0.7547456629860346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7445165640055417</v>
+        <v>0.7445165640055418</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7510131368040913</v>
+        <v>0.7510131368040911</v>
       </c>
       <c r="S2" t="n">
         <v>0.7411344818107185</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7317717332442992</v>
+        <v>0.7317717332442994</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7406624131060058</v>
+        <v>0.7406624131060056</v>
       </c>
       <c r="V2" t="n">
         <v>0.7027255167916309</v>
@@ -3876,31 +3918,31 @@
         <v>0.7206549507082181</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7468428248939031</v>
+        <v>0.7468428248939036</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7388042804293004</v>
+        <v>0.7388042804293011</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7757705732316644</v>
+        <v>0.7757705732316642</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7815976779615365</v>
+        <v>0.7815976779615371</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7529955914473319</v>
+        <v>0.752995591447332</v>
       </c>
       <c r="AC2" t="n">
         <v>0.7463344518567041</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7550808861525508</v>
+        <v>0.7550808861525505</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7596152658024541</v>
+        <v>0.7596152658024548</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7843628696641269</v>
+        <v>0.7843628696641267</v>
       </c>
       <c r="AG2" t="n">
         <v>0.5960509764063314</v>
@@ -3909,54 +3951,54 @@
         <v>0.7483276176288004</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6396199398109828</v>
+        <v>0.639619939810983</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.7452786080386204</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6818993120114397</v>
+        <v>0.6818993120114396</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7468795092676945</v>
+        <v>0.7468795092676952</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7321626371172127</v>
+        <v>0.7321626371172129</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6393594987690834</v>
+        <v>0.6393594987690836</v>
       </c>
       <c r="AO2" t="n">
         <v>0.6977424009585679</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6974074320277434</v>
+        <v>0.6974074320277431</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.6496276938479423</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.772382713514559</v>
+        <v>0.7723827135145594</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.7514366201256066</v>
+        <v>0.7514366201256064</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7768578713760151</v>
+        <v>0.7768578713760148</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.7252756031222299</v>
+        <v>0.7252756031222297</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6293177166948141</v>
+        <v>0.6293177166948138</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6916116297380946</v>
+        <v>0.6916116297380948</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>0.7512905557996457</v>
@@ -3965,13 +4007,13 @@
         <v>0.6875810088059137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7555358803461644</v>
+        <v>0.7555358803461636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7581186407502847</v>
+        <v>0.7581186407502846</v>
       </c>
       <c r="G3" t="n">
-        <v>0.74538881864395</v>
+        <v>0.7453888186439503</v>
       </c>
       <c r="H3" t="n">
         <v>0.7551610862209126</v>
@@ -3980,10 +4022,10 @@
         <v>0.7426801335251747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7090625508136289</v>
+        <v>0.7090625508136287</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6528288851305302</v>
+        <v>0.6528288851305301</v>
       </c>
       <c r="L3" t="n">
         <v>0.7078045678961498</v>
@@ -3998,129 +4040,129 @@
         <v>0.6679476726524196</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7035333659916785</v>
+        <v>0.7035333659916784</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6754715783057366</v>
+        <v>0.6754715783057368</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7429047672275111</v>
+        <v>0.7429047672275106</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7029524681967712</v>
+        <v>0.7029524681967708</v>
       </c>
       <c r="T3" t="n">
-        <v>0.699797141981899</v>
+        <v>0.6997971419818988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7170390011302921</v>
+        <v>0.717039001130292</v>
       </c>
       <c r="V3" t="n">
-        <v>0.707824034610971</v>
+        <v>0.7078240346109712</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7281043055516322</v>
+        <v>0.7281043055516323</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6735493034532288</v>
+        <v>0.6735493034532287</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7701719506547317</v>
+        <v>0.770171950654732</v>
       </c>
       <c r="Z3" t="n">
         <v>0.668164264442214</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7191948493811539</v>
+        <v>0.7191948493811541</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6477356683424171</v>
+        <v>0.6477356683424167</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7203382813359248</v>
+        <v>0.7203382813359247</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7384747057748461</v>
+        <v>0.7384747057748464</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6782933924011001</v>
+        <v>0.6782933924011004</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7575612851681891</v>
+        <v>0.7575612851681894</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7427117055655476</v>
+        <v>0.7427117055655478</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7508358745833538</v>
+        <v>0.7508358745833531</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.7023726420490158</v>
+        <v>0.7023726420490159</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7625506534951885</v>
+        <v>0.7625506534951886</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7340898539968131</v>
+        <v>0.7340898539968133</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7462729430796851</v>
+        <v>0.7462729430796846</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7479981254348774</v>
+        <v>0.7479981254348775</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7484512366168123</v>
+        <v>0.7484512366168126</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7542291507265898</v>
+        <v>0.7542291507265901</v>
       </c>
       <c r="AP3" t="n">
         <v>0.7240670224520921</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.732079551534199</v>
+        <v>0.7320795515341993</v>
       </c>
       <c r="AR3" t="n">
         <v>0.7528811151608711</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.7505504991481635</v>
+        <v>0.7505504991481639</v>
       </c>
       <c r="AT3" t="n">
         <v>0.7216656374100409</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.7501110331105229</v>
+        <v>0.7501110331105224</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.7207443180986047</v>
+        <v>0.720744318098605</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.7215575532310444</v>
+        <v>0.7215575532310446</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6824091699043929</v>
+        <v>0.6824091699043936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6388455855407161</v>
+        <v>0.6388455855407157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7606130137950676</v>
+        <v>0.7606130137950674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7656809228744923</v>
+        <v>0.7656809228744921</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7342494746357934</v>
+        <v>0.7342494746357935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7598965402274666</v>
+        <v>0.7598965402274661</v>
       </c>
       <c r="I4" t="n">
         <v>0.7155221644070003</v>
@@ -4129,16 +4171,16 @@
         <v>0.7493408738135439</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6511027045327125</v>
+        <v>0.651102704532712</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7111045212558565</v>
+        <v>0.7111045212558562</v>
       </c>
       <c r="M4" t="n">
-        <v>0.715394545542125</v>
+        <v>0.7153945455421251</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7338008074886607</v>
+        <v>0.7338008074886611</v>
       </c>
       <c r="O4" t="n">
         <v>0.7210657650617736</v>
@@ -4147,37 +4189,37 @@
         <v>0.6936676985571835</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.713898997394435</v>
+        <v>0.7138989973944352</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7256641266117604</v>
+        <v>0.7256641266117599</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7272103240969252</v>
+        <v>0.727210324096925</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7129509550755856</v>
+        <v>0.7129509550755857</v>
       </c>
       <c r="U4" t="n">
         <v>0.7387869485116226</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7122939218091048</v>
+        <v>0.7122939218091049</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7050852998614707</v>
+        <v>0.7050852998614711</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7650482180247251</v>
+        <v>0.7650482180247249</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7250093805879446</v>
+        <v>0.725009380587945</v>
       </c>
       <c r="Z4" t="n">
         <v>0.7023750798723826</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7303054872565767</v>
+        <v>0.7303054872565763</v>
       </c>
       <c r="AB4" t="n">
         <v>0.7350690571553388</v>
@@ -4186,61 +4228,61 @@
         <v>0.741596463305954</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7143776301059918</v>
+        <v>0.7143776301059916</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6824929129833694</v>
+        <v>0.6824929129833697</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7458181003881609</v>
+        <v>0.7458181003881601</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7562792337532904</v>
+        <v>0.7562792337532906</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7616752397738271</v>
+        <v>0.7616752397738278</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.678777640256731</v>
+        <v>0.6787776402567313</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6914191704690736</v>
+        <v>0.6914191704690734</v>
       </c>
       <c r="AK4" t="n">
         <v>0.7365927702622852</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7201939923550392</v>
+        <v>0.7201939923550389</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7161006379159462</v>
+        <v>0.7161006379159466</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6955462780207942</v>
+        <v>0.6955462780207938</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7175980130121364</v>
+        <v>0.7175980130121361</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.7137205989918567</v>
+        <v>0.7137205989918566</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7750575477486997</v>
+        <v>0.7750575477486999</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7112598112167712</v>
+        <v>0.7112598112167708</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.7048405061672823</v>
+        <v>0.7048405061672824</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7636252251484221</v>
+        <v>0.7636252251484216</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.7357345730784784</v>
+        <v>0.7357345730784787</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.7373161881208924</v>
+        <v>0.7373161881208922</v>
       </c>
       <c r="AW4" t="n">
         <v>0.713494365771204</v>
@@ -4248,457 +4290,457 @@
     </row>
     <row r="5" spans="1:49">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7194225718966624</v>
+        <v>0.719422571896662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6617461335250533</v>
+        <v>0.6617461335250527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7381911847814732</v>
+        <v>0.7381911847814734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7321052374794925</v>
+        <v>0.7321052374794926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7320980449885313</v>
+        <v>0.7320980449885311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7361697206685238</v>
+        <v>0.7361697206685243</v>
       </c>
       <c r="I5" t="n">
         <v>0.78936991221627</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7443742374909346</v>
+        <v>0.7443742374909341</v>
       </c>
       <c r="K5" t="n">
         <v>0.687155974075546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6276186251117011</v>
+        <v>0.6276186251117009</v>
       </c>
       <c r="M5" t="n">
         <v>0.649140010764195</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7128279826864189</v>
+        <v>0.7128279826864192</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7106242490494233</v>
+        <v>0.7106242490494236</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6921879164810787</v>
+        <v>0.6921879164810792</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6754483278097864</v>
+        <v>0.6754483278097867</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7462109971938025</v>
+        <v>0.7462109971938017</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6486150377400982</v>
+        <v>0.6486150377400983</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6730257396101358</v>
+        <v>0.6730257396101361</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6313465312760259</v>
+        <v>0.6313465312760258</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6776825546642917</v>
+        <v>0.6776825546642918</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7408026449403248</v>
+        <v>0.7408026449403249</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7056219405641612</v>
+        <v>0.7056219405641609</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6671084024687994</v>
+        <v>0.6671084024687993</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6847263197231461</v>
+        <v>0.684726319723146</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6868028772507756</v>
+        <v>0.6868028772507757</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7187666959245287</v>
+        <v>0.7187666959245288</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7043511893775981</v>
+        <v>0.7043511893775976</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7299865996900412</v>
+        <v>0.7299865996900406</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6669054433791</v>
+        <v>0.6669054433791006</v>
       </c>
       <c r="AF5" t="n">
         <v>0.6774872147815771</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7316281741610511</v>
+        <v>0.7316281741610505</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.709980669811029</v>
+        <v>0.7099806698110294</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.7170025805747515</v>
+        <v>0.7170025805747514</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6709623720558492</v>
+        <v>0.6709623720558495</v>
       </c>
       <c r="AK5" t="n">
         <v>0.7215708024154521</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6813418762624037</v>
+        <v>0.6813418762624034</v>
       </c>
       <c r="AM5" t="n">
         <v>0.7699449580830661</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7404383410984939</v>
+        <v>0.7404383410984943</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7322187217422917</v>
+        <v>0.7322187217422915</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7632676637084972</v>
+        <v>0.7632676637084974</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6937217563627497</v>
+        <v>0.6937217563627496</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.7125562532991337</v>
+        <v>0.7125562532991335</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7098915508083631</v>
+        <v>0.7098915508083627</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7307315293783216</v>
+        <v>0.7307315293783219</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.7294385609753136</v>
+        <v>0.729438560975314</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.6077845741427702</v>
+        <v>0.6077845741427698</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.7181562955436442</v>
+        <v>0.7181562955436441</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6920094188667035</v>
+        <v>0.6920094188667033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7466104842740505</v>
+        <v>0.7466104842740506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7523697068812969</v>
+        <v>0.7523697068812972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7314577733524514</v>
+        <v>0.7314577733524512</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6946445596183729</v>
+        <v>0.694644559618373</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7428185832136677</v>
+        <v>0.7428185832136681</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7483030804762717</v>
+        <v>0.7483030804762719</v>
       </c>
       <c r="J6" t="n">
         <v>0.7052295239872678</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6989481872857405</v>
+        <v>0.6989481872857404</v>
       </c>
       <c r="L6" t="n">
-        <v>0.706047141152359</v>
+        <v>0.7060471411523591</v>
       </c>
       <c r="M6" t="n">
         <v>0.7029210316553471</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7923853254743169</v>
+        <v>0.7923853254743175</v>
       </c>
       <c r="O6" t="n">
         <v>0.7169537820394605</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6680948867593367</v>
+        <v>0.6680948867593366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6511678428328835</v>
+        <v>0.6511678428328838</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7195766875522258</v>
+        <v>0.7195766875522251</v>
       </c>
       <c r="S6" t="n">
         <v>0.7273180639289291</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7677640501903029</v>
+        <v>0.7677640501903024</v>
       </c>
       <c r="U6" t="n">
         <v>0.6449393381987789</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7067344764767191</v>
+        <v>0.7067344764767192</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7328515414179299</v>
+        <v>0.7328515414179303</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7483853722221715</v>
+        <v>0.7483853722221712</v>
       </c>
       <c r="Y6" t="n">
         <v>0.7705966614948386</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7380558303319874</v>
+        <v>0.7380558303319876</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.716061951180503</v>
+        <v>0.7160619511805028</v>
       </c>
       <c r="AB6" t="n">
         <v>0.711290389861804</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7164594951126854</v>
+        <v>0.7164594951126857</v>
       </c>
       <c r="AD6" t="n">
         <v>0.7190406594962188</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6309974171589557</v>
+        <v>0.6309974171589559</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7288289007745662</v>
+        <v>0.7288289007745657</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7413137453938609</v>
+        <v>0.7413137453938607</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7530056549822247</v>
+        <v>0.7530056549822248</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7128337818066941</v>
+        <v>0.7128337818066943</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.7113051996673153</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7210986733006103</v>
+        <v>0.7210986733006108</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7353828003971739</v>
+        <v>0.7353828003971741</v>
       </c>
       <c r="AM6" t="n">
         <v>0.7336275693060942</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7445043379690843</v>
+        <v>0.7445043379690841</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6803142659435586</v>
+        <v>0.6803142659435587</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.7804017747374766</v>
+        <v>0.7804017747374763</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.7682038211001422</v>
+        <v>0.7682038211001421</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.7786621228871836</v>
+        <v>0.7786621228871831</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.7467045056893874</v>
+        <v>0.7467045056893873</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.7734026075296998</v>
+        <v>0.7734026075297001</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.6798562033432846</v>
+        <v>0.6798562033432848</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.6711085983128124</v>
+        <v>0.6711085983128121</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.6804706533226951</v>
+        <v>0.680470653322695</v>
       </c>
     </row>
     <row r="7" spans="1:49">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7144024245686461</v>
+        <v>0.7144024245686459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.764212331908162</v>
+        <v>0.7642123319081617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.705788283551861</v>
+        <v>0.7057882835518603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6637482800508799</v>
+        <v>0.6637482800508804</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6764491199840105</v>
+        <v>0.6764491199840102</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7078330523469301</v>
+        <v>0.7078330523469297</v>
       </c>
       <c r="I7" t="n">
         <v>0.7713908984399402</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7740654463244311</v>
+        <v>0.7740654463244312</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6570684885976688</v>
+        <v>0.657068488597669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7173756682648975</v>
+        <v>0.7173756682648971</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6877803915723757</v>
+        <v>0.6877803915723758</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7443548724317169</v>
+        <v>0.7443548724317172</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6972255103963465</v>
+        <v>0.6972255103963466</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6838104716505019</v>
+        <v>0.683810471650502</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.648192586591706</v>
+        <v>0.6481925865917063</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7593819319361814</v>
+        <v>0.759381931936181</v>
       </c>
       <c r="S7" t="n">
         <v>0.6129934530764255</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7538666496988905</v>
+        <v>0.7538666496988907</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7121215300342031</v>
+        <v>0.7121215300342033</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7482994144555031</v>
+        <v>0.7482994144555033</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7237018735489431</v>
+        <v>0.7237018735489434</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7244817400150425</v>
+        <v>0.724481740015043</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.712458631492652</v>
+        <v>0.7124586314926519</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7726027930861166</v>
+        <v>0.7726027930861161</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7383679691106229</v>
+        <v>0.7383679691106223</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7475410806540508</v>
+        <v>0.7475410806540511</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7358805438222182</v>
+        <v>0.7358805438222185</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.736940346119799</v>
+        <v>0.7369403461197989</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7042695471644458</v>
+        <v>0.7042695471644461</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7389391241373634</v>
+        <v>0.7389391241373631</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7258752896233005</v>
+        <v>0.7258752896233006</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7481511399284538</v>
+        <v>0.7481511399284537</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7152785498155808</v>
+        <v>0.7152785498155815</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.7220174851803951</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.713580929395593</v>
+        <v>0.7135809293955928</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7533011629300201</v>
+        <v>0.7533011629300203</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7203172402043572</v>
+        <v>0.7203172402043571</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6822981841339547</v>
+        <v>0.6822981841339544</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.648797786228285</v>
+        <v>0.6487977862282852</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6234529963318003</v>
+        <v>0.6234529963318</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7645728212851496</v>
+        <v>0.7645728212851494</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7355335780126495</v>
+        <v>0.7355335780126497</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.7450332154544701</v>
+        <v>0.7450332154544702</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.7482841803108096</v>
+        <v>0.7482841803108091</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7747882153764278</v>
+        <v>0.7747882153764279</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7075903414963857</v>
+        <v>0.7075903414963859</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.7458363597098377</v>
+        <v>0.745836359709838</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7680060896256314</v>
+        <v>0.7680060896256315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7111264414485599</v>
+        <v>0.71112644144856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7625150942528246</v>
+        <v>0.7625150942528249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6861918836114852</v>
+        <v>0.6861918836114854</v>
       </c>
       <c r="G8" t="n">
         <v>0.7302469156108095</v>
@@ -4707,10 +4749,10 @@
         <v>0.7122175408586766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7063054930387569</v>
+        <v>0.7063054930387568</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7384134259594403</v>
+        <v>0.7384134259594407</v>
       </c>
       <c r="K8" t="n">
         <v>0.6855673880255371</v>
@@ -4719,10 +4761,10 @@
         <v>0.6879411858351364</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7117755155453006</v>
+        <v>0.7117755155453007</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7638102490078259</v>
+        <v>0.763810249007826</v>
       </c>
       <c r="O8" t="n">
         <v>0.6669972394969887</v>
@@ -4731,34 +4773,34 @@
         <v>0.7248795045668238</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7597439508774556</v>
+        <v>0.7597439508774557</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7502932682115294</v>
+        <v>0.7502932682115288</v>
       </c>
       <c r="S8" t="n">
         <v>0.6236317211036301</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6669699958379968</v>
+        <v>0.6669699958379972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7619016407180366</v>
+        <v>0.7619016407180369</v>
       </c>
       <c r="V8" t="n">
         <v>0.758863699001933</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7375209314220436</v>
+        <v>0.7375209314220438</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7426241169468469</v>
+        <v>0.7426241169468474</v>
       </c>
       <c r="Y8" t="n">
         <v>0.720749167455663</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6979749508724958</v>
+        <v>0.6979749508724961</v>
       </c>
       <c r="AA8" t="n">
         <v>0.7458436508057266</v>
@@ -4767,99 +4809,99 @@
         <v>0.7023336653995949</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7295889442541091</v>
+        <v>0.7295889442541089</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7705367982757523</v>
+        <v>0.7705367982757522</v>
       </c>
       <c r="AE8" t="n">
         <v>0.7389406847128388</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7355869166661403</v>
+        <v>0.7355869166661395</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7505556366309997</v>
+        <v>0.7505556366309998</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7183048378654386</v>
+        <v>0.7183048378654388</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.7208285052443741</v>
+        <v>0.7208285052443745</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7005854993736454</v>
+        <v>0.7005854993736452</v>
       </c>
       <c r="AK8" t="n">
         <v>0.7342393751160946</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7357038169034632</v>
+        <v>0.735703816903463</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6967502030156805</v>
+        <v>0.6967502030156804</v>
       </c>
       <c r="AN8" t="n">
         <v>0.7410929963258134</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.7343253944990373</v>
+        <v>0.7343253944990378</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.746024357460314</v>
+        <v>0.7460243574603138</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6838417901614364</v>
+        <v>0.6838417901614369</v>
       </c>
       <c r="AR8" t="n">
         <v>0.7473903698078114</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.7133568430561754</v>
+        <v>0.7133568430561753</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.7412307260308316</v>
+        <v>0.7412307260308311</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.7269519703738008</v>
+        <v>0.7269519703738001</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.7125193164354429</v>
+        <v>0.712519316435443</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.7237484799438922</v>
+        <v>0.7237484799438924</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6288614105912921</v>
+        <v>0.6288614105912922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5439695694260125</v>
+        <v>0.5439695694260128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7753292797895465</v>
+        <v>0.7753292797895464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7469551135588774</v>
+        <v>0.7469551135588771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6239664624277502</v>
+        <v>0.6239664624277501</v>
       </c>
       <c r="H9" t="n">
         <v>0.7044841285106126</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6209289075494315</v>
+        <v>0.6209289075494316</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7184422583240664</v>
+        <v>0.7184422583240663</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6085394632945405</v>
+        <v>0.6085394632945403</v>
       </c>
       <c r="L9" t="n">
         <v>0.7451107740347024</v>
@@ -4868,240 +4910,240 @@
         <v>0.7101396848549771</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6723750328826417</v>
+        <v>0.672375032882642</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6154588794791662</v>
+        <v>0.6154588794791663</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6934904274506375</v>
+        <v>0.6934904274506377</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6654840846669808</v>
+        <v>0.6654840846669811</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6412674593280775</v>
+        <v>0.6412674593280769</v>
       </c>
       <c r="S9" t="n">
-        <v>0.662068383803308</v>
+        <v>0.6620683838033079</v>
       </c>
       <c r="T9" t="n">
-        <v>0.683544714879553</v>
+        <v>0.6835447148795532</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7248266067476893</v>
+        <v>0.7248266067476896</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6435123188280707</v>
+        <v>0.6435123188280711</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7250950649652002</v>
+        <v>0.7250950649652005</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6857621299395201</v>
+        <v>0.68576212993952</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.763354694590215</v>
+        <v>0.7633546945902148</v>
       </c>
       <c r="Z9" t="n">
         <v>0.6879669479525479</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7644035128617602</v>
+        <v>0.7644035128617606</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7361781465265419</v>
+        <v>0.7361781465265417</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6567090625176</v>
+        <v>0.6567090625175996</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6413348525243748</v>
+        <v>0.6413348525243754</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7556131512358759</v>
+        <v>0.7556131512358757</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7334757071226388</v>
+        <v>0.7334757071226384</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7527383213314218</v>
+        <v>0.7527383213314219</v>
       </c>
       <c r="AH9" t="n">
         <v>0.7085355672836516</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.7468416320920704</v>
+        <v>0.7468416320920708</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7259356289648896</v>
+        <v>0.7259356289648898</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7754385269596221</v>
+        <v>0.7754385269596222</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6934692137477141</v>
+        <v>0.693469213747714</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7089023928289623</v>
+        <v>0.7089023928289619</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.706927578814313</v>
+        <v>0.7069275788143128</v>
       </c>
       <c r="AO9" t="n">
         <v>0.7596894036520219</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7669250308648133</v>
+        <v>0.7669250308648135</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7098456140040976</v>
+        <v>0.7098456140040978</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.76785939074692</v>
+        <v>0.7678593907469198</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7505289852308121</v>
+        <v>0.7505289852308114</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.7541846183680504</v>
+        <v>0.75418461836805</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.61263606801875</v>
+        <v>0.6126360680187498</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7476980696837523</v>
+        <v>0.7476980696837519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6442262808707896</v>
+        <v>0.6442262808707897</v>
       </c>
       <c r="E10" t="n">
         <v>0.7454645174304091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7339098798466535</v>
+        <v>0.7339098798466541</v>
       </c>
       <c r="G10" t="n">
         <v>0.6263879252608949</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6535623706235111</v>
+        <v>0.653562370623511</v>
       </c>
       <c r="I10" t="n">
         <v>0.7333367949021979</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7382803784067585</v>
+        <v>0.7382803784067586</v>
       </c>
       <c r="K10" t="n">
         <v>0.6546226219935819</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6334218260350961</v>
+        <v>0.6334218260350959</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6891117214874524</v>
+        <v>0.6891117214874523</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6293954336972101</v>
+        <v>0.6293954336972098</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6617799367218702</v>
+        <v>0.6617799367218701</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6773529771252101</v>
+        <v>0.6773529771252105</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6518299331191458</v>
+        <v>0.6518299331191461</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6241896518462616</v>
+        <v>0.6241896518462617</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5876767323599071</v>
+        <v>0.587676732359907</v>
       </c>
       <c r="T10" t="n">
         <v>0.6298908941413898</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6939723091183765</v>
+        <v>0.6939723091183767</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7251397229585846</v>
+        <v>0.7251397229585849</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6572194607505226</v>
+        <v>0.6572194607505232</v>
       </c>
       <c r="X10" t="n">
         <v>0.7590882621114721</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7750885759962549</v>
+        <v>0.775088575996255</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6691410203077551</v>
+        <v>0.6691410203077549</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6300150067524593</v>
+        <v>0.630015006752459</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6472401954466183</v>
+        <v>0.6472401954466185</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6602351458254616</v>
+        <v>0.6602351458254615</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6861194259343588</v>
+        <v>0.6861194259343586</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6872556461660391</v>
+        <v>0.6872556461660393</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6078058980743982</v>
+        <v>0.6078058980743984</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6015741541214452</v>
+        <v>0.601574154121445</v>
       </c>
       <c r="AH10" t="n">
         <v>0.7421717629553922</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6298590039566726</v>
+        <v>0.6298590039566728</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6106173854344173</v>
+        <v>0.6106173854344175</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.61574846544412</v>
+        <v>0.6157484654441202</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7844556471466856</v>
+        <v>0.7844556471466853</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5937708323490051</v>
+        <v>0.593770832349005</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6463877333263236</v>
+        <v>0.6463877333263235</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5996906718450385</v>
+        <v>0.599690671845038</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.7326053965710652</v>
+        <v>0.7326053965710655</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7255519141601217</v>
+        <v>0.7255519141601215</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7194225880971602</v>
+        <v>0.7194225880971604</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.7531834649156195</v>
+        <v>0.7531834649156198</v>
       </c>
       <c r="AT10" t="n">
         <v>0.7361789883553084</v>
@@ -5113,90 +5155,90 @@
         <v>0.5503034846583427</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.7344481852366914</v>
+        <v>0.7344481852366912</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6664673648102686</v>
+        <v>0.6664673648102681</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6656962762951273</v>
+        <v>0.6656962762951275</v>
       </c>
       <c r="E11" t="n">
-        <v>0.762380804130904</v>
+        <v>0.7623808041309044</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7454611527029932</v>
+        <v>0.7454611527029928</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7190606405050095</v>
+        <v>0.7190606405050094</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7311983273088061</v>
+        <v>0.7311983273088065</v>
       </c>
       <c r="I11" t="n">
         <v>0.7666783390508911</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7590238851988415</v>
+        <v>0.759023885198841</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7598166547211472</v>
+        <v>0.7598166547211473</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7132355751753162</v>
+        <v>0.7132355751753161</v>
       </c>
       <c r="M11" t="n">
         <v>0.7637058831549293</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7087869320378392</v>
+        <v>0.7087869320378389</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7355570511744265</v>
+        <v>0.7355570511744268</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7190432609175285</v>
+        <v>0.7190432609175282</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7571479661249678</v>
+        <v>0.7571479661249679</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7351577054348646</v>
+        <v>0.7351577054348638</v>
       </c>
       <c r="S11" t="n">
         <v>0.6581966640098698</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7161304220885018</v>
+        <v>0.7161304220885021</v>
       </c>
       <c r="U11" t="n">
         <v>0.6947296413794695</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7002468957969529</v>
+        <v>0.7002468957969531</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6828572637986199</v>
+        <v>0.6828572637986202</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7179923924451208</v>
+        <v>0.717992392445121</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7271202403366346</v>
+        <v>0.7271202403366349</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7567838343669112</v>
+        <v>0.7567838343669109</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7249498888640573</v>
+        <v>0.7249498888640576</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6752796377280587</v>
+        <v>0.6752796377280588</v>
       </c>
       <c r="AC11" t="n">
         <v>0.7152111965761629</v>
@@ -5205,58 +5247,58 @@
         <v>0.6713758740477088</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7426912678584465</v>
+        <v>0.7426912678584467</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.682033736835316</v>
+        <v>0.6820337368353154</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.666030294321759</v>
+        <v>0.6660302943217591</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7745465716268372</v>
+        <v>0.7745465716268368</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7357753618585371</v>
+        <v>0.7357753618585374</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7231523034428329</v>
+        <v>0.7231523034428331</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6757360837475181</v>
+        <v>0.675736083747518</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6801106355143339</v>
+        <v>0.6801106355143337</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6687442389383427</v>
+        <v>0.6687442389383428</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7428266823461522</v>
+        <v>0.7428266823461525</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7473472902476789</v>
+        <v>0.7473472902476792</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.770890840025777</v>
+        <v>0.7708908400257771</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.7388611086763525</v>
+        <v>0.7388611086763528</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7250039531178682</v>
+        <v>0.7250039531178679</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.7918879621093921</v>
+        <v>0.7918879621093922</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.736129384022935</v>
+        <v>0.7361293840229349</v>
       </c>
       <c r="AU11" t="n">
         <v>0.7397546925765195</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.6014391734871665</v>
+        <v>0.6014391734871662</v>
       </c>
       <c r="AW11" t="n">
         <v>0.7166428558786169</v>
